--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estevaolordeiro/Documents/Resumes &amp; Cover Letters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estevaolordeiro/GitHub/NeetCode150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467042C-FC8F-D241-9290-AD4972D395B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9698639-B9F4-D948-ABC7-EE212501DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="500" windowWidth="42600" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="228">
   <si>
     <t>LeetCode</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>Got it pretty quickly.</t>
+  </si>
+  <si>
+    <t>Recursive solution. Base cases are: opened parens are greater than n: return, closed parens are equal to n: append to res, open and closed are equal, reccur by opening parens only, all other cases open 1 the recur, then close 1 then recur.</t>
+  </si>
+  <si>
+    <t>I have seen this question and solution before so I got it pretty quickly</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,10 +2117,18 @@
       <c r="D26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="36">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H26" s="41">
+        <v>45364</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estevaolordeiro/GitHub/NeetCode150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9698639-B9F4-D948-ABC7-EE212501DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAFDE8-5D4E-F44E-899E-DB1A0D0556E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="500" windowWidth="42600" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
+    <workbookView xWindow="9060" yWindow="500" windowWidth="34640" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="237">
   <si>
     <t>LeetCode</t>
   </si>
@@ -720,6 +720,33 @@
   </si>
   <si>
     <t>I have seen this question and solution before so I got it pretty quickly</t>
+  </si>
+  <si>
+    <t>Monotonic Stack solution. Create a monotonic stack that keeps track of decreasing temperatures. When a greater temperature than the one that is on top of the stack is found, keep popping the stack and filling in the res array. It is possible to store the indices of the tempartures rather than the temps themselves.</t>
+  </si>
+  <si>
+    <t>After noticing that you need a monotonic stack, the solution becomes pretty easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monotonic Stack solution. Create a mapping of positions to speed. Then sort the position array in reverse order an iterate through it. For each position, calculate the time required to reach the target based on the initial position and the speed. With a monotonicly increasing stack, keep a track of the arrival times. The output is the length of the stack at the end. </t>
+  </si>
+  <si>
+    <t>After noticing that you need a monotonic stack, and that you need to calculate the arrival time, the solution becomes pretty easy.</t>
+  </si>
+  <si>
+    <t>Monotonicly Increasing Stack. Keep the indices and heights in a tuple on the stack. If the current height is smaller than the height on the stack, pop the heights and their indices and calculate the max area. When pushing the height onto the stack, push the index of the last height that was popped off, or 0. This accounts for a rectangle that can grow to the left.</t>
+  </si>
+  <si>
+    <t>I got it in about 30 minutes only because I had seen the solution previously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple binary search. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not much more to say about it. </t>
+  </si>
+  <si>
+    <t>Similar to the previous problem but in a 2D matrix. So perform binary search twice.</t>
   </si>
 </sst>
 </file>
@@ -1463,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759F43-BCE1-D64C-893A-DC02D8CF2337}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,7 +2134,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
       <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
@@ -2131,7 +2160,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="8">
+        <v>739</v>
+      </c>
       <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
@@ -2141,13 +2172,23 @@
       <c r="D27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="36">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H27" s="41">
+        <v>45365</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8">
+        <v>853</v>
+      </c>
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
@@ -2157,13 +2198,23 @@
       <c r="D28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="40"/>
+      <c r="E28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="36">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H28" s="41">
+        <v>45365</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8">
+        <v>84</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2173,49 +2224,79 @@
       <c r="D29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="40"/>
+      <c r="E29" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="36">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H29" s="41">
+        <v>45366</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8">
+        <v>704</v>
+      </c>
       <c r="B30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="40"/>
+      <c r="E30" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="36">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H30" s="41">
+        <v>45366</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8">
+        <v>74</v>
+      </c>
       <c r="B31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="40"/>
+      <c r="E31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="36">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H31" s="41">
+        <v>45366</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="8">
+        <v>875</v>
+      </c>
       <c r="B32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2227,11 +2308,13 @@
       <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8">
+        <v>153</v>
+      </c>
       <c r="B33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2243,11 +2326,13 @@
       <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
       <c r="B34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -2259,11 +2344,13 @@
       <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8">
+        <v>981</v>
+      </c>
       <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -2275,11 +2362,13 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8">
+        <v>4</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -4184,6 +4273,13 @@
     <hyperlink ref="C27" r:id="rId26" xr:uid="{1EA286AC-D63E-9A45-89F7-D7836B191346}"/>
     <hyperlink ref="C28" r:id="rId27" xr:uid="{3DC1C306-2ED7-7C4B-BFE4-F5F0EEBB507E}"/>
     <hyperlink ref="C29" r:id="rId28" xr:uid="{4895EF42-8365-F647-A6DF-A30FEC91B0ED}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{A44CDE7D-BD0A-6D43-8F32-8CD2D9F05521}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{1C787E2F-D83B-BE4F-A53E-B68971CC783A}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{4A1558A2-3F53-2540-9812-7F439C876F5C}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{79B087E6-0AA7-9147-8195-57F6977042D0}"/>
+    <hyperlink ref="C33" r:id="rId33" xr:uid="{E1110054-3E65-7D4D-A9B5-05F4994DD138}"/>
+    <hyperlink ref="C32" r:id="rId34" xr:uid="{8CF8122C-E3BB-7A44-A0FA-B43404E45191}"/>
+    <hyperlink ref="C31" r:id="rId35" xr:uid="{60527AF8-B85C-C34C-BFA7-BDD15AFE6186}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estevaolordeiro/GitHub/NeetCode150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAFDE8-5D4E-F44E-899E-DB1A0D0556E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF2A56-E410-7740-9807-3B0EC088E20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="500" windowWidth="34640" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="39220" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="241">
   <si>
     <t>LeetCode</t>
   </si>
@@ -747,6 +747,18 @@
   </si>
   <si>
     <t>Similar to the previous problem but in a 2D matrix. So perform binary search twice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minimum number of bananas that Koko can eat is 1 and the max number that she can eat is the max number in piles. Perform a binary search between those numbers and for each one see if it is a valid k. An inner loop that iterates through all piles and adds the total number of hours taken to eat all bananas can determine the required amount of time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had seen the solution before. </t>
+  </si>
+  <si>
+    <t>If the number at nums[0] is less than or equal to nums[len(nums) - 1], than the array is not rotated and the minimum is nums[0]. Otherwise we can split the array in half, recur on each half, and return the minimum between each recursion.</t>
+  </si>
+  <si>
+    <t>Understood the problem pretty quickly. Had seen it before.</t>
   </si>
 </sst>
 </file>
@@ -1032,15 +1044,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,9 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,9 +1137,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,9 +1148,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,6 +1155,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="29" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,16 +1499,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07759F43-BCE1-D64C-893A-DC02D8CF2337}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="30.83203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="28" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="100.83203125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="100.83203125" style="10" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1510,2738 +1519,2754 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="35" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>217</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="36">
         <v>45355</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>242</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="36">
         <v>45355</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="36">
         <v>45355</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>49</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <v>45355</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>347</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="32">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="36">
         <v>45357</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>238</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="32">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="36">
         <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="33">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="36">
         <v>45357</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="35" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>128</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="36">
         <v>45357</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>125</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="32">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="36">
         <v>45357</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>167</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="37">
         <v>45358</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="36">
         <v>45358</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="33">
         <v>3.125E-2</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="36">
         <v>45358</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="36">
         <v>45358</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>121</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="36">
         <v>45358</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="36">
         <v>45359</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>424</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="32">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="36">
         <v>45359</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>567</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="32">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="36">
         <v>45360</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>76</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="32">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="36">
         <v>45362</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>239</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="32">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="36">
         <v>45362</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="36">
         <v>45363</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>155</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="36">
         <v>45363</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>150</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="36">
         <v>45363</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="36">
         <v>45364</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>739</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="36">
         <v>45365</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>853</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="36">
         <v>45365</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>84</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="36">
         <v>45366</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>704</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="32">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="36">
         <v>45366</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>74</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="36">
         <v>45366</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>875</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="40"/>
+      <c r="E32" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H32" s="36">
+        <v>45367</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>153</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="32">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H33" s="36">
+        <v>45367</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="40"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>981</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="40"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>4</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="40"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="40"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="40"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="40"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="33" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="40"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="40"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="40"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="40"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="33" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="40"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="33" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="40"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>23</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="32">
         <v>3.125E-2</v>
       </c>
-      <c r="H46" s="40"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="40"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="40"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="40"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="34" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="40"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="40"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="40"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="40"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="33" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="40"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="33" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="40"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="33" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="40"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="40"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="40"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="33" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="40"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="33" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="40"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="40"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="40"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="40"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="40"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="40"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="34" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="40"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="34" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="40"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="33" t="s">
+      <c r="A68" s="7"/>
+      <c r="B68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="40"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="33" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="40"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="33" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="40"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="33" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="40"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="40"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="40"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="33" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="40"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="33" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="40"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="33" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="40"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="33" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="40"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="33" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="40"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="33" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="40"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="33" t="s">
+      <c r="A80" s="7"/>
+      <c r="B80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="40"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="40"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="33" t="s">
+      <c r="A82" s="7"/>
+      <c r="B82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="40"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="33" t="s">
+      <c r="A83" s="7"/>
+      <c r="B83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="40"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="33" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="40"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="33" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="40"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="33" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="40"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="33" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="40"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="33" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="40"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="33" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="40"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="33" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="40"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="33" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="40"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="33" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="40"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="33" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="40"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="40"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="40"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="33" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="40"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="33" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="40"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="40"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="40"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="33" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="40"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="34" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="40"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="34" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="40"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="33" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="40"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="33" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="40"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
-      <c r="B105" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="33" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="40"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
-      <c r="B106" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="33" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="40"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="35"/>
     </row>
     <row r="107" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="33" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="40"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="35"/>
     </row>
     <row r="108" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="33" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="40"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="35"/>
     </row>
     <row r="109" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="33" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="40"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="33" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="40"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="35"/>
     </row>
     <row r="111" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="33" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="40"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="35"/>
     </row>
     <row r="112" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="33" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="40"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="33" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="40"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="33" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="40"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="33" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="40"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="33" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="40"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="33" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="40"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="35"/>
     </row>
     <row r="118" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="33" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="40"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="4" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="40"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
-      <c r="B120" s="4" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="40"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
-      <c r="B121" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="33" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="40"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
-      <c r="B122" s="4" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="40"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="35"/>
     </row>
     <row r="123" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="4" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="40"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="35"/>
     </row>
     <row r="124" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="33" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="40"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
-      <c r="B125" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="33" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="40"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="35"/>
     </row>
     <row r="126" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
-      <c r="B126" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="33" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="40"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
-      <c r="B127" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="33" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="40"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="35"/>
     </row>
     <row r="128" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
-      <c r="B128" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="33" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="40"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="33" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="40"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="33" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="40"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="35"/>
     </row>
     <row r="131" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
-      <c r="B131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="33" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="40"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="35"/>
     </row>
     <row r="132" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
-      <c r="B132" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="33" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="40"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
-      <c r="B133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="33" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="40"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="35"/>
     </row>
     <row r="134" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="33" t="s">
+      <c r="A134" s="7"/>
+      <c r="B134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="40"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="34" t="s">
+      <c r="A135" s="7"/>
+      <c r="B135" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="33" t="s">
+      <c r="C135" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="40"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="35"/>
     </row>
     <row r="136" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="33" t="s">
+      <c r="A136" s="7"/>
+      <c r="B136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="40"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="35"/>
     </row>
     <row r="137" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="7"/>
+      <c r="B137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="33" t="s">
+      <c r="C137" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="D137" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="40"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="33" t="s">
+      <c r="A138" s="7"/>
+      <c r="B138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="40"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="35"/>
     </row>
     <row r="139" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="33" t="s">
+      <c r="A139" s="7"/>
+      <c r="B139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="D139" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="40"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="33" t="s">
+      <c r="A140" s="7"/>
+      <c r="B140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="40"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
-      <c r="B141" s="34" t="s">
+      <c r="A141" s="7"/>
+      <c r="B141" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="33" t="s">
+      <c r="C141" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="40"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="35"/>
     </row>
     <row r="142" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
-      <c r="B142" s="34" t="s">
+      <c r="A142" s="7"/>
+      <c r="B142" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="C142" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="40"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
-      <c r="B143" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="33" t="s">
+      <c r="A143" s="7"/>
+      <c r="B143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="40"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="33" t="s">
+      <c r="A144" s="7"/>
+      <c r="B144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="D144" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="40"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="35"/>
     </row>
     <row r="145" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
-      <c r="B145" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="33" t="s">
+      <c r="A145" s="7"/>
+      <c r="B145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D145" s="28" t="s">
+      <c r="D145" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="40"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="35"/>
     </row>
     <row r="146" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
-      <c r="B146" s="34" t="s">
+      <c r="A146" s="7"/>
+      <c r="B146" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C146" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="29" t="s">
+      <c r="D146" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="40"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="35"/>
     </row>
     <row r="147" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
-      <c r="B147" s="34" t="s">
+      <c r="A147" s="7"/>
+      <c r="B147" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="33" t="s">
+      <c r="C147" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D147" s="29" t="s">
+      <c r="D147" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="40"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="35"/>
     </row>
     <row r="148" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
-      <c r="B148" s="34" t="s">
+      <c r="A148" s="7"/>
+      <c r="B148" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="40"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="35"/>
     </row>
     <row r="149" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
-      <c r="B149" s="34" t="s">
+      <c r="A149" s="7"/>
+      <c r="B149" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="40"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
-      <c r="B150" s="34" t="s">
+      <c r="A150" s="7"/>
+      <c r="B150" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="40"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
-      <c r="B151" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" s="33" t="s">
+      <c r="A151" s="7"/>
+      <c r="B151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D151" s="29" t="s">
+      <c r="D151" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="40"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="35"/>
     </row>
     <row r="152" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
-      <c r="B152" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="33" t="s">
+      <c r="A152" s="7"/>
+      <c r="B152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="40"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estevaolordeiro/GitHub/NeetCode150/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF2A56-E410-7740-9807-3B0EC088E20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96DB3B-D25C-D143-9D5C-23548F341309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="39220" windowHeight="28300" xr2:uid="{E2796101-3015-5D4D-8C5F-902DF05C918E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="244">
   <si>
     <t>LeetCode</t>
   </si>
@@ -759,6 +759,15 @@
   </si>
   <si>
     <t>Understood the problem pretty quickly. Had seen it before.</t>
+  </si>
+  <si>
+    <t>Recursive binary search in order to find a subarray that has not been rotated. We know a subarray has not been rotated if its leftmost element is less than its rightmost element.</t>
+  </si>
+  <si>
+    <t>Beats about 50% of other solutions. Not terrible. Could be better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to the previous problem but this time I used an inner function and passed in the indices of left and right rather than passing in the subarray recursively. </t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1509,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2363,10 +2372,18 @@
       <c r="D34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="E34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="32">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H34" s="36">
+        <v>45368</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
@@ -2381,10 +2398,18 @@
       <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="E35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="32">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H35" s="36">
+        <v>45368</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
